--- a/data/predictions/crim_justice/sentencing/leveled/leandemocrat.xlsx
+++ b/data/predictions/crim_justice/sentencing/leveled/leandemocrat.xlsx
@@ -874,7 +874,7 @@
         <v>0.5160085719375498</v>
       </c>
       <c r="F34">
-        <v>0.2806834641641486</v>
+        <v>0.3420209500607996</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -888,7 +888,7 @@
         <v>0.5147434178879201</v>
       </c>
       <c r="F35">
-        <v>0.2869924757598666</v>
+        <v>0.3325592740354544</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -902,7 +902,7 @@
         <v>0.5134466477969645</v>
       </c>
       <c r="F36">
-        <v>0.2910863091521493</v>
+        <v>0.3804936838821922</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -916,7 +916,7 @@
         <v>0.5121189757968503</v>
       </c>
       <c r="F37">
-        <v>0.2956244945402235</v>
+        <v>0.3567461004476072</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -930,7 +930,7 @@
         <v>0.5107610998891754</v>
       </c>
       <c r="F38">
-        <v>0.3000735454758831</v>
+        <v>0.3685028141995015</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -944,7 +944,7 @@
         <v>0.5093737023093198</v>
       </c>
       <c r="F39">
-        <v>0.3045404762695888</v>
+        <v>0.3712832496797863</v>
       </c>
     </row>
   </sheetData>
